--- a/biology/Zoologie/Cidarie_à_bandes_vertes/Cidarie_à_bandes_vertes.xlsx
+++ b/biology/Zoologie/Cidarie_à_bandes_vertes/Cidarie_à_bandes_vertes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cidarie_%C3%A0_bandes_vertes</t>
+          <t>Cidarie_à_bandes_vertes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloroclysta siterata
 La Cidarie à bandes vertes ou Phalène du tilleul, Chloroclysta siterata, est une espèce de lépidoptères (papillons) de la famille des Geometridae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cidarie_%C3%A0_bandes_vertes</t>
+          <t>Cidarie_à_bandes_vertes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, espèce répandue à travers toute l'Europe, et jusqu'en Asie mineure. Presque partout en France métropolitaine.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cidarie_%C3%A0_bandes_vertes</t>
+          <t>Cidarie_à_bandes_vertes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cidarie à bandes vertes fréquente des milieux divers : bois mixtes, vergers, friches, jardins...
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cidarie_%C3%A0_bandes_vertes</t>
+          <t>Cidarie_à_bandes_vertes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago vole au printemps après avoir hiverné et la nouvelle génération en août-septembre.
 La chenille vit sur de nombreux arbres (chênes, peupliers, saules, sorbiers...).
